--- a/pneumonie.xlsx
+++ b/pneumonie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\libDocs\_Учебка\Публикации\2026\05.01.2024 - СисИИ экоингт\старое\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\libDocs\_Учебка\Публикации\2026\05.01.2024 - СисИИ экоингт\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105170A5-B119-4103-BA3B-E258DF10DFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CA55E-A958-4DB9-AEF4-559657F5D424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="175" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -165,10 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,8 +397,8 @@
   </sheetPr>
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="187" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
-        <v>45633.347222222219</v>
+        <v>45643.347222222219</v>
       </c>
       <c r="B187" s="10">
         <v>36.6</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="188" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
-        <v>45633.448611111111</v>
+        <v>45643.448611111111</v>
       </c>
       <c r="B188" s="10">
         <v>36.6</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="189" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
-        <v>45633.576388888891</v>
+        <v>45643.576388888891</v>
       </c>
       <c r="B189" s="10">
         <v>36.9</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="190" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
-        <v>45633.622916666667</v>
+        <v>45643.622916666667</v>
       </c>
       <c r="B190" s="10">
         <v>36.6</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="191" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
-        <v>45633.705555555556</v>
+        <v>45643.705555555556</v>
       </c>
       <c r="B191" s="10">
         <v>36.6</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="192" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
-        <v>45633.789583333331</v>
+        <v>45643.789583333331</v>
       </c>
       <c r="B192" s="10">
         <v>36.6</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="193" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
-        <v>45633.847222222219</v>
+        <v>45643.847222222219</v>
       </c>
       <c r="B193" s="10">
         <v>36.6</v>
